--- a/ja/biz_samples/03/_images/figures.xlsx
+++ b/ja/biz_samples/03/_images/figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikk91214\work\v6\project\nablarch-document\ja\biz_samples\03\_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529BC168-1E05-4019-80DE-A58EAEB9D072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C1A84-0198-4B7B-88B8-8FFDBB3A8E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2128,13 +2128,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>657632</xdr:colOff>
+      <xdr:colOff>672950</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>124831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>368729</xdr:colOff>
+      <xdr:colOff>390950</xdr:colOff>
       <xdr:row>178</xdr:row>
       <xdr:rowOff>21545</xdr:rowOff>
     </xdr:to>
@@ -2151,10 +2151,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1339421" y="25351042"/>
-          <a:ext cx="12665097" cy="5010135"/>
-          <a:chOff x="1339421" y="25351042"/>
-          <a:chExt cx="12665097" cy="5010135"/>
+          <a:off x="1354739" y="25351042"/>
+          <a:ext cx="12672000" cy="5010135"/>
+          <a:chOff x="1354739" y="25351042"/>
+          <a:chExt cx="12672000" cy="5010135"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -2178,7 +2178,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1353571" y="25918027"/>
+            <a:off x="1363597" y="25918027"/>
             <a:ext cx="12650947" cy="3924848"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2263,12 +2263,12 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1339421" y="26529633"/>
-            <a:ext cx="12625182" cy="3248525"/>
+            <a:off x="1354739" y="26529633"/>
+            <a:ext cx="12672000" cy="3248525"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
-              <a:gd name="adj" fmla="val 2554"/>
+              <a:gd name="adj" fmla="val 6258"/>
             </a:avLst>
           </a:prstGeom>
           <a:noFill/>
@@ -2312,12 +2312,12 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1370057" y="25937074"/>
-            <a:ext cx="12626122" cy="542425"/>
+            <a:off x="1354739" y="25927048"/>
+            <a:ext cx="12672000" cy="542425"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
-              <a:gd name="adj" fmla="val 11007"/>
+              <a:gd name="adj" fmla="val 31340"/>
             </a:avLst>
           </a:prstGeom>
           <a:noFill/>
@@ -2429,7 +2429,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="7679044" y="25663361"/>
-            <a:ext cx="4074" cy="273713"/>
+            <a:ext cx="11695" cy="263687"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2468,9 +2468,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="7652012" y="29778158"/>
-            <a:ext cx="27032" cy="269697"/>
+          <a:xfrm flipV="1">
+            <a:off x="7679044" y="29778158"/>
+            <a:ext cx="11695" cy="269697"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2932,8 +2932,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8833182" y="6256413"/>
-            <a:ext cx="4572000" cy="691815"/>
+            <a:off x="8833182" y="6266447"/>
+            <a:ext cx="4572000" cy="661729"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2979,7 +2979,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7349290" y="6446919"/>
+            <a:off x="7349290" y="6436893"/>
             <a:ext cx="1001628" cy="313200"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3046,9 +3046,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="8350918" y="6602321"/>
-            <a:ext cx="482264" cy="1198"/>
+          <a:xfrm>
+            <a:off x="8350918" y="6593493"/>
+            <a:ext cx="482264" cy="3819"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3367,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C649B4A-B843-48A9-BB9B-F2FD7782A397}">
   <dimension ref="B2:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
